--- a/ahieu - litte.xlsx
+++ b/ahieu - litte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>partner Type</t>
+  </si>
+  <si>
+    <t>tracking Number</t>
   </si>
 </sst>
 </file>
@@ -994,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,12 +1019,13 @@
     <col min="14" max="14" width="9.140625" style="2"/>
     <col min="15" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="18.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="74.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="50.28515625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="56.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="32.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1076,8 +1080,11 @@
       <c r="R1" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43719</v>
       </c>
@@ -1127,7 +1134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43732</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43733</v>
       </c>

--- a/ahieu - litte.xlsx
+++ b/ahieu - litte.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingV1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="orders_export_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -160,15 +155,12 @@
   </si>
   <si>
     <t>partner Type</t>
-  </si>
-  <si>
-    <t>tracking Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -777,7 +769,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -812,7 +804,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -989,7 +981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -997,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,11 +1013,10 @@
     <col min="16" max="16" width="18.42578125" style="2" customWidth="1"/>
     <col min="17" max="17" width="56.28515625" style="2" customWidth="1"/>
     <col min="18" max="18" width="32.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="23.140625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1080,13 +1071,10 @@
       <c r="R1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>43719</v>
+        <v>43764</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>30</v>
@@ -1134,9 +1122,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>43732</v>
+        <v>43764</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -1187,9 +1175,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>43733</v>
+        <v>43763</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
